--- a/data/trans_bre/P75-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P75-Provincia-trans_bre.xlsx
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 5,85</t>
+          <t>-8,68; 6,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-32,42; 26,4</t>
+          <t>-28,47; 27,55</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 8,37</t>
+          <t>-4,22; 7,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 2,56</t>
+          <t>-0,0; 2,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 36,82</t>
+          <t>-14,3; 32,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,84; —</t>
+          <t>-54,63; —</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,49</t>
+          <t>0,0; 1,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,82</t>
+          <t>-1,14; 2,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 876,56</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 5,58</t>
+          <t>-3,46; 5,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 4,72</t>
+          <t>-5,18; 4,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-18,24; 35,26</t>
+          <t>-17,94; 31,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,62; 44,83</t>
+          <t>-33,83; 46,39</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 10,62</t>
+          <t>-3,03; 11,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 13,21</t>
+          <t>-4,96; 13,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 13,56</t>
+          <t>-3,58; 14,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 43,46</t>
+          <t>-12,96; 45,39</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 6,3</t>
+          <t>-1,01; 5,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-20,08; 392,47</t>
+          <t>-28,45; 318,53</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 2,13</t>
+          <t>-4,54; 1,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 4,35</t>
+          <t>-0,46; 4,27</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-41,24; 29,09</t>
+          <t>-40,73; 27,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 179,93</t>
+          <t>-11,82; 170,46</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 4,22</t>
+          <t>-5,76; 4,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 4,53</t>
+          <t>-4,73; 4,65</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 8,45</t>
+          <t>-10,5; 9,23</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 15,44</t>
+          <t>-14,14; 16,26</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 2,69</t>
+          <t>-1,81; 2,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,36</t>
+          <t>-1,18; 2,33</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 10,66</t>
+          <t>-6,58; 10,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 17,55</t>
+          <t>-7,82; 17,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P75-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P75-Provincia-trans_bre.xlsx
@@ -546,7 +546,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 6,06</t>
+          <t>-9,29; 5,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,47; 27,55</t>
+          <t>-31,66; 23,8</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 7,59</t>
+          <t>-3,83; 8,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 2,41</t>
+          <t>-0,01; 2,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 32,39</t>
+          <t>-13,54; 35,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,63; —</t>
+          <t>-64,4; —</t>
         </is>
       </c>
     </row>
@@ -729,12 +729,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,63</t>
+          <t>0,0; 1,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 2,01</t>
+          <t>-1,2; 2,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 5,13</t>
+          <t>-3,7; 5,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 4,75</t>
+          <t>-5,21; 4,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,94; 31,77</t>
+          <t>-18,51; 36,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,83; 46,39</t>
+          <t>-32,61; 47,32</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 11,15</t>
+          <t>-2,61; 10,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 13,71</t>
+          <t>-5,22; 13,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 14,29</t>
+          <t>-2,99; 13,88</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,96; 45,39</t>
+          <t>-12,58; 42,76</t>
         </is>
       </c>
     </row>
@@ -909,12 +909,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,42</t>
+          <t>0,0; 2,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 5,87</t>
+          <t>-1,02; 6,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 318,53</t>
+          <t>-27,64; 349,74</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 1,99</t>
+          <t>-4,2; 2,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 4,27</t>
+          <t>-0,56; 4,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-40,73; 27,58</t>
+          <t>-38,13; 30,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 170,46</t>
+          <t>-14,19; 159,66</t>
         </is>
       </c>
     </row>
@@ -1029,22 +1029,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 4,65</t>
+          <t>-5,59; 4,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 4,65</t>
+          <t>-4,85; 4,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 9,23</t>
+          <t>-10,04; 9,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 16,26</t>
+          <t>-14,18; 14,05</t>
         </is>
       </c>
     </row>
@@ -1089,22 +1089,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 2,73</t>
+          <t>-1,67; 2,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,33</t>
+          <t>-0,91; 2,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 10,99</t>
+          <t>-5,99; 11,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 17,85</t>
+          <t>-6,2; 18,54</t>
         </is>
       </c>
     </row>
